--- a/SEML/top100.xlsx
+++ b/SEML/top100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SEML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Interaction SE with ML\SEML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEML/top100.xlsx
+++ b/SEML/top100.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="461">
   <si>
     <t>Id</t>
   </si>
@@ -1255,13 +1255,160 @@
   </si>
   <si>
     <t>It has been long suggested that commit messages can greatly facilitate code comprehension. However, developers may not write good commit messages in practice. Neural machine translation (NMT) has been suggested to automatically generate commit messages. Despite the efforts in improving NMT algorithms, the quality of the generated commit messages is not yet satisfactory. This paper, instead of improving NMT algorithms, suggests that proper preprocessing of code changes into concise inputs is quite critical to train NMT. We approach it with semantic analysis of code changes. We collect a real-world dataset with 50k+ commits of popular Java projects, and verify our idea with comprehensive experiments. The results show that preprocessing inputs with code semantic analysis can improve NMT significantly. This work sheds light to how to apply existing DNNs designed by the machine learning community, e.g., NMT models, to complete software engineering tasks.</t>
+  </si>
+  <si>
+    <t>include corpus</t>
+  </si>
+  <si>
+    <t>SE cycle</t>
+  </si>
+  <si>
+    <t>Testing/Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARD, NVD </t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>code_docstring_corpus</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>ImageNet, MNIST</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>generate documentation</t>
+  </si>
+  <si>
+    <t>test neural networks</t>
+  </si>
+  <si>
+    <t>thread-safty detection</t>
+  </si>
+  <si>
+    <t>reverse execution with DNN assistance</t>
+  </si>
+  <si>
+    <t>Maintanence*</t>
+  </si>
+  <si>
+    <t>Performance Prediction</t>
+  </si>
+  <si>
+    <t>Infere API documentation type</t>
+  </si>
+  <si>
+    <t>Specification FSM Mining</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Vulenarability detection</t>
+  </si>
+  <si>
+    <t>sql Vulenarability detection</t>
+  </si>
+  <si>
+    <t>OWASP  Benchmark  + collected</t>
+  </si>
+  <si>
+    <t>Development/Testing*</t>
+  </si>
+  <si>
+    <t>compilation error auto repair</t>
+  </si>
+  <si>
+    <t>Proprietary dataset</t>
+  </si>
+  <si>
+    <t>cloned code detection</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Maintanance*</t>
+  </si>
+  <si>
+    <t>Collected</t>
+  </si>
+  <si>
+    <t>CODEnn-Java-Train + Collected</t>
+  </si>
+  <si>
+    <t>Java/Android</t>
+  </si>
+  <si>
+    <t>Development*</t>
+  </si>
+  <si>
+    <t>find code based on natural language queries</t>
+  </si>
+  <si>
+    <t>valid data structures detection</t>
+  </si>
+  <si>
+    <t>Maintanance</t>
+  </si>
+  <si>
+    <t>Find classes that needs refactoring/ feature envy detection</t>
+  </si>
+  <si>
+    <t>CIFAR10</t>
+  </si>
+  <si>
+    <t>Testing*</t>
+  </si>
+  <si>
+    <t>fix neural networks by wight adaptation</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Maintanence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ </t>
+  </si>
+  <si>
+    <t>predict web service response time</t>
+  </si>
+  <si>
+    <t>ANN, CART. LR, RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co-evolutionary algorithm to generate strong online Introsion detection system </t>
+  </si>
+  <si>
+    <t>4SICSGeek Lounge datase</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,6 +1539,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1584,7 +1739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1699,8 +1854,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1743,12 +1926,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1782,6 +1971,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2068,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,9 +2273,13 @@
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2107,2608 +2301,3248 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="I1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>473</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2019</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1042</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2018</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>712</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>2018</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>286</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>2019</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="I5" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>287</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2019</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>614</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>2018</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1495</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>2019</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>826</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>2019</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="I9" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1399</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>2019</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>739</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>2019</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>822</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>2019</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I12" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>462</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>2019</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I13" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>1336</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>2018</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>750</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>2019</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>315</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>2019</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>1196</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>2019</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>1012</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>2018</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>1019</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>2018</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="I19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>1270</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>2019</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="I20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>1043</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>2018</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="I21" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>1149</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>2019</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="I22" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>821</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>2019</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="I23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>1380</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>2019</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I24" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>1177</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2019</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>148</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2018</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>1017</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>2018</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>2017</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>1213</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>2019</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>559</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>2017</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>448</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>2019</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>310</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>2019</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>413</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>2018</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>455</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>2019</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>628</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>2018</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>631</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>2018</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>288</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>2019</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>278</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>2019</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>2018</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>1157</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>2019</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>1205</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>2019</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="I41" s="4"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>2018</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>1120</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>2019</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>1085</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>2018</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>1049</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>2018</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>223</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>2019</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>328</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>2019</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>652</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>2018</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>1041</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>2018</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>1020</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>2018</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>645</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>2018</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>1018</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>2018</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>442</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>2019</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>450</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>2019</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>971</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>2017</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>896</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>2017</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>879</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>2019</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>497</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>2017</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="I58" s="4"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>145</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>2018</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="I59" s="4"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>578</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <v>2017</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="I60" s="4"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>1208</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>2019</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="I61" s="4"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>418</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>2018</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>247</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>2019</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="I63" s="4"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>1210</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>2019</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="I64" s="4"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>1321</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
         <v>2017</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="I65" s="4"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>1379</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="4">
         <v>2019</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="I66" s="4"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>1232</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="4">
         <v>2019</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="I67" s="4"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>1335</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <v>2018</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="I68" s="4"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>1509</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="4">
         <v>2019</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>1490</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="4">
         <v>2019</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="I70" s="4"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>1512</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="4">
         <v>2019</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="I71" s="4"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>1460</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="4">
         <v>2018</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="I72" s="4"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>1428</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="4">
         <v>2017</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="I73" s="4"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>1393</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="4">
         <v>2019</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="I74" s="4"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>1426</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="4">
         <v>2017</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="I75" s="4"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>449</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="4">
         <v>2019</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="I76" s="4"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>972</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="4">
         <v>2017</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="I77" s="4"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>612</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="4">
         <v>2017</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="I78" s="4"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>1214</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="4">
         <v>2019</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="I79" s="4"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>102</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="4">
         <v>2018</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="I80" s="4"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>1002</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="4">
         <v>2017</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="I81" s="4"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>457</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="4">
         <v>2019</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="I82" s="4"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>185</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="4">
         <v>2018</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="I83" s="4"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>1476</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="4">
         <v>2019</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="I84" s="4"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>1446</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="4">
         <v>2017</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="I85" s="4"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>1337</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="4">
         <v>2018</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="I86" s="4"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>1365</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="4">
         <v>2019</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="I87" s="4"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>144</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="4">
         <v>2018</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="I88" s="4"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>934</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="4">
         <v>2017</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="I89" s="4"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>198</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="4">
         <v>2018</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="I90" s="4"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>923</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="4">
         <v>2017</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="I91" s="4"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>919</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="4">
         <v>2017</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="I92" s="4"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>904</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="4">
         <v>2017</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="I93" s="4"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>901</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="4">
         <v>2017</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="I94" s="4"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>38</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="4">
         <v>2017</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="I95" s="4"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>196</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="4">
         <v>2018</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="I96" s="4"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>810</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="4">
         <v>2019</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="I97" s="4"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>506</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="4">
         <v>2017</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="I98" s="4"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>851</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="4">
         <v>2019</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="I99" s="4"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>749</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="4">
         <v>2019</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="I100" s="4"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>1268</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="4">
         <v>2019</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="4">
         <v>3</v>
       </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I21" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId2" display="CODEnn-Java-Train"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/SEML/top100.xlsx
+++ b/SEML/top100.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="464">
   <si>
     <t>Id</t>
   </si>
@@ -1402,6 +1402,15 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASA, AEEEM, ReLink, SOFTLAB , MORPH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Defect Predictions (SDP) with class overlap resolution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java, C </t>
   </si>
 </sst>
 </file>
@@ -2260,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,7 +2285,8 @@
     <col min="9" max="9" width="32.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="52.42578125" customWidth="1"/>
+    <col min="12" max="12" width="57" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3175,10 +3185,18 @@
       <c r="H25" s="2">
         <v>5</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">

--- a/SEML/top100.xlsx
+++ b/SEML/top100.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="530">
   <si>
     <t>Id</t>
   </si>
@@ -114,18 +114,6 @@
     <t>The rapid growth of Android malware has posed severe security threats to smartphone users. On the basis of the familial trait of Android malware observed by previous work, the familial analysis is a promising way to help analysts better focus on the commonalities of malware samples within the same families, thus reducing the analytical workload and accelerating malware analysis. The majority of existing approaches rely on supervised learning and face three main challenges, i.e., low accuracy, low efficiency, and the lack of labeled dataset. To address these challenges, we first construct a fine-grained behavior model by abstracting the program semantics into a set of subgraphs. Then, we propose SRA, a novel feature that depicts the similarity relationships between the Structural Roles of sensitive API call nodes in subgraphs. An SRA is obtained based on graph embedding techniques and represented as a vector, thus we can effectively reduce the high complexity of graph matching. After that, instead of training a classifier with labeled samples, we construct malware link network based on SRAs and apply community detection algorithms on it to group the unlabeled samples into groups. We implement these ideas in a system called GefDroid that performs Graph embedding based familial analysis of AnDroid malware using unsupervised learning. Moreover, we conduct extensive experiments to evaluate GefDroid on three datasets with ground truth. The results show that GefDroid can achieve high agreements (0.707-0.883 in term of NMI) between the clustering results and the ground truth. Furthermore, GefDroid requires only linear run-time overhead and takes around 8.6s to analyze a sample on average, which is considerably faster than the previous work.</t>
   </si>
   <si>
-    <t>conf/sigsoft/Meijer18</t>
-  </si>
-  <si>
-    <t>Behind every great deep learning framework is an even greater programming languages concept (keynote).</t>
-  </si>
-  <si>
-    <t>Erik Meijer</t>
-  </si>
-  <si>
-    <t>ABSTRACTIn many areas, such as image recognition, natural language processing, search, recommendation, autonomous cars, systems software and infrastructure, and even Software Engineering tools themselves, Software 2.0 (= programming using learned models) is quickly swallowing Software 1.0 (= programming using handcrafted algorithms). Where the Software 1.0 Engineer formally specifies their problem, carefully designs algorithms, composes systems out of subsystems or decomposes complex systems into smaller components, the Software 2.0 Engineer amasses training data and simply feeds it into an ML algorithm that will synthesize an approximation of the function whose partial extensional definition is that training data. Instead of code as the artifact of interest, in Software 2.0 it is all about the data where compilation of source code is replaced by training models with data. This new style of programming has far-reaching consequences for traditional software engineering practices. Everything we have learned about life cycle models, project planning and estimation, requirements analysis, program design, construction, debugging, testing, maintenance and implementation, â€¦ runs the danger of becoming obsolete.  One way to try to prepare for the new realities of software engineering is not to zero in on the differences between Software 1.0 and Software 2.0 but instead focus on their similarities. If you carefully look at what a neural net actually represents, you realize that in essence it is a pure function, from multi-dimensional arrays of floating point numbers to multi-dimensional arrays of floating point numbers (tensors). What is special about these functions is that they are differentiable (yes, exactly as you remember from middle school calculus), which allows them to be trained using back propagation. The programming language community has also discovered that there is a deep connection between back propagation and continuations. Moreover, when you look closely at how Software 2.0 Engineers construct complex neural nets like CNNs, RNNs, LSTMs, â€¦ you recognize they are (implicitly) using high-order combinators like map, fold, zip, scan, recursion, conditionals, function composition, â€¦ to compose complex neural network architectures out of simple building blocks. Constructing neural networks using pure and higher-order differentiable functions and training them using reverse-mode automatic differentiation is unsurprisingly called Differentiable Programming. This talk will illustrate the deep programming language principles behind Differentiable Programming, which will hopefully inspire the working Software 1.0 engineer to pay serious attention to the threats and opportunities of Software 2.0.</t>
-  </si>
-  <si>
     <t>conf/issre/WangXZLW19</t>
   </si>
   <si>
@@ -168,18 +156,6 @@
     <t>ABSTRACTGolang (short for Go programming language) is a fast and compiled language, which has been increasingly used in industry due to its excellent performance on concurrent programming. Golang redefines concurrent programming grammar, making it a challenge for traditional clone detection tools and techniques. However, there exist few tools for detecting duplicates or copy-paste related bugs in Golang. Therefore, an effective and efficient code clone detector on Golang is especially needed.  In this paper, we present Go-Clone, a learning-based clone detector for Golang. Go-Clone contains two modules -- the training module and the user interaction module. In the training module, firstly we parse Golang source code into llvm IR (Intermediate Representation). Secondly, we calculate LSFG (labeled semantic flow graph) for each program function automatically. Go-Clone trains a deep neural network model to encode LSFGs for similarity classification. In the user interaction module, users can choose one or more Golang projects. Go-Clone identifies and presents a list of function pairs, which are most likely clone code for user inspection. To evaluate Go-Clone's performance, we collect 6,110 commit versions from 48 Github projects to construct a Golang clone detection data set. Go-Clone can reach the value of AUC (Area Under Curve) and ACC (Accuracy) for 89.61% and 83.80% in clone detection. By testing several groups of unfamiliar data, we also demonstrates the generility of Go-Clone. The address of the abstract demo video: https://youtu.be/o5DogtYGbeo</t>
   </si>
   <si>
-    <t>conf/sigsoft/Kwiatkowska19</t>
-  </si>
-  <si>
-    <t>Safety and robustness for deep learning with provable guarantees (keynote).</t>
-  </si>
-  <si>
-    <t>Marta Kwiatkowska</t>
-  </si>
-  <si>
-    <t>ABSTRACTComputing systems are becoming ever more complex, with decisions increasingly often based on deep learning components. A wide variety of applications are being developed, many of them safety-critical, such as self-driving cars and medical diagnosis. Since deep learning is unstable with respect to adversarial perturbations, there is a need for rigorous software development methodologies that encompass machine learning components. This lecture will describe progress with developing automated verification and testing techniques for deep neural networks to ensure safety and robustness of their decisions with respect to input perturbations. The techniques exploit Lipschitz continuity of the networks and aim to approximate, for a given set of inputs, the reachable set of network outputs in terms of lower and upper bounds, in anytime manner, with provable guarantees. We develop novel algorithms based on feature-guided search, games, global optimisation and Bayesian methods, and evaluate them on state-of-the-art networks. The lecture will conclude with an overview of the challenges in this field.</t>
-  </si>
-  <si>
     <t>conf/sigsoft/0001RJGA19</t>
   </si>
   <si>
@@ -1305,9 +1281,6 @@
     <t>reverse execution with DNN assistance</t>
   </si>
   <si>
-    <t>Maintanence*</t>
-  </si>
-  <si>
     <t>Performance Prediction</t>
   </si>
   <si>
@@ -1329,9 +1302,6 @@
     <t>OWASP  Benchmark  + collected</t>
   </si>
   <si>
-    <t>Development/Testing*</t>
-  </si>
-  <si>
     <t>compilation error auto repair</t>
   </si>
   <si>
@@ -1344,21 +1314,12 @@
     <t>Go</t>
   </si>
   <si>
-    <t>Maintanance*</t>
-  </si>
-  <si>
     <t>Collected</t>
   </si>
   <si>
-    <t>CODEnn-Java-Train + Collected</t>
-  </si>
-  <si>
     <t>Java/Android</t>
   </si>
   <si>
-    <t>Development*</t>
-  </si>
-  <si>
     <t>find code based on natural language queries</t>
   </si>
   <si>
@@ -1374,27 +1335,15 @@
     <t>CIFAR10</t>
   </si>
   <si>
-    <t>Testing*</t>
-  </si>
-  <si>
-    <t>fix neural networks by wight adaptation</t>
-  </si>
-  <si>
     <t>ML</t>
   </si>
   <si>
     <t>Maintanence</t>
   </si>
   <si>
-    <t xml:space="preserve">_ </t>
-  </si>
-  <si>
     <t>predict web service response time</t>
   </si>
   <si>
-    <t>ANN, CART. LR, RF</t>
-  </si>
-  <si>
     <t xml:space="preserve">co-evolutionary algorithm to generate strong online Introsion detection system </t>
   </si>
   <si>
@@ -1411,6 +1360,255 @@
   </si>
   <si>
     <t xml:space="preserve">Java, C </t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Auto UI-design-images to GUI-skelton</t>
+  </si>
+  <si>
+    <t>CNN, RNN</t>
+  </si>
+  <si>
+    <t>US Censos</t>
+  </si>
+  <si>
+    <t>Generate discrminatory inputs for Machine Learning Models</t>
+  </si>
+  <si>
+    <t>Requirnments</t>
+  </si>
+  <si>
+    <t>Compute the tracebelity between two souce-target artifcats</t>
+  </si>
+  <si>
+    <t>World of Code (WOC)</t>
+  </si>
+  <si>
+    <t>Use data of multiple OSS providers to profile developers</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Giga-token corpus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count-based scoped language modelling for code completion </t>
+  </si>
+  <si>
+    <t>UCI + artificial</t>
+  </si>
+  <si>
+    <t>Test ML models invariance against data set metmorphic transformations</t>
+  </si>
+  <si>
+    <t>MNIST,CIFAR10, UDACITY self driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulate a surprise adequacy framework and coverage to test DL </t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Faullt localization in cloud using  centrality mesaure in KPI causality graph</t>
+  </si>
+  <si>
+    <t>CodeFlaws</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>finding a fitness function for search based software testing using ML</t>
+  </si>
+  <si>
+    <t>FNN</t>
+  </si>
+  <si>
+    <t>BigCloneBench, Google Code Jam</t>
+  </si>
+  <si>
+    <t>compute functional code similarity using neural networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNIST, CIFRA10,  FashionMnist, Labeled Faces in the Wild, CelebA, OUI-Adience </t>
+  </si>
+  <si>
+    <t>test input generation to fix NN models accuracy based  on differential state analysis</t>
+  </si>
+  <si>
+    <t>BigCloneBench , OnlineJudgeMou</t>
+  </si>
+  <si>
+    <t>source code representtion by combining subtree embeddings with GU</t>
+  </si>
+  <si>
+    <t>Github Projects</t>
+  </si>
+  <si>
+    <t>resolve verification latency and concept drift in just in time software defect prediction - predict how much likely a commit is defect inducing - using resmpling techniques.</t>
+  </si>
+  <si>
+    <t>Collected;Python submissions obtainedfrom the Intro to Programming in Python course (6.00x) on the edX</t>
+  </si>
+  <si>
+    <t>correct students programs errors using RNN (for syntax err.) and SKETCH solver (for semantic err.)</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>Java, C, C++</t>
+  </si>
+  <si>
+    <t>eleven real-world configurablesoftware systems, These software systems were measured and published online</t>
+  </si>
+  <si>
+    <t>Eight  widely  used  software  systems: Kafka,  Spark,  Hive,Redis,  MySQL,  Cassandra,  Hbase,  andTomcat.</t>
+  </si>
+  <si>
+    <t>generate good performing configurations for complex software systems using GAN</t>
+  </si>
+  <si>
+    <t>GAN</t>
+  </si>
+  <si>
+    <t>fix neural networks by weight adaptation</t>
+  </si>
+  <si>
+    <t>Qualitas corpus</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>LinuxFlaw</t>
+  </si>
+  <si>
+    <t>Java, C#</t>
+  </si>
+  <si>
+    <t>CaDOdataset</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>11target library classes: JDK, Daikon, Xalan</t>
+  </si>
+  <si>
+    <t>BoW, LSTM, GGNN</t>
+  </si>
+  <si>
+    <t>github commits - collected</t>
+  </si>
+  <si>
+    <t>CODEnn-Java-Train + Collected(GitHub-Android-Train)</t>
+  </si>
+  <si>
+    <t>detect text layout bugs in mobile phones</t>
+  </si>
+  <si>
+    <t>collect 580 screenshots from 30 popular mobile appli-cations on three different smartphones</t>
+  </si>
+  <si>
+    <t>three datasets provided by Genome project, Drebin, and Fan et al.</t>
+  </si>
+  <si>
+    <t>unsupervised malware familial analysis using graph embeddings senstive nodes structural similarity</t>
+  </si>
+  <si>
+    <t>11 target library classes: JDK, Daikon, Xalan</t>
+  </si>
+  <si>
+    <t>seven open-source appli-cations</t>
+  </si>
+  <si>
+    <t>MLP, AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classify test logs into root cause categories </t>
+  </si>
+  <si>
+    <t>Testing/Repair</t>
+  </si>
+  <si>
+    <t>GML</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>specification mining</t>
+  </si>
+  <si>
+    <t>Code Query</t>
+  </si>
+  <si>
+    <t>Auto Repair</t>
+  </si>
+  <si>
+    <t>NN Testing</t>
+  </si>
+  <si>
+    <t>Code Generation</t>
+  </si>
+  <si>
+    <t>NN Repair</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Prediction </t>
+  </si>
+  <si>
+    <t>Property Detection</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>FNN, CART, LR, RF</t>
+  </si>
+  <si>
+    <t>RNN, LSTM, GRU</t>
+  </si>
+  <si>
+    <t>SVM, LSTM, CNN, GGNN</t>
+  </si>
+  <si>
+    <t>RNN, SVM, KNN</t>
+  </si>
+  <si>
+    <t>RNN, CNN, LSTM, DT, LR, SVM, RF, FNN</t>
+  </si>
+  <si>
+    <t>LSTM, RL</t>
+  </si>
+  <si>
+    <t>RNN, LSTM</t>
+  </si>
+  <si>
+    <t>ML Testing</t>
   </si>
 </sst>
 </file>
@@ -2267,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,11 +2483,12 @@
     <col min="9" max="9" width="32.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="57" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="71.42578125" customWidth="1"/>
+    <col min="14" max="14" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2312,22 +2511,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>473</v>
       </c>
@@ -2352,13 +2554,26 @@
       <c r="H2" s="2">
         <v>9</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1042</v>
       </c>
@@ -2383,17 +2598,26 @@
       <c r="H3" s="2">
         <v>8</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="L3" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>712</v>
       </c>
@@ -2418,17 +2642,26 @@
       <c r="H4" s="2">
         <v>7</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>502</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="L4" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>286</v>
       </c>
@@ -2454,20 +2687,25 @@
         <v>7</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>287</v>
       </c>
@@ -2492,52 +2730,78 @@
       <c r="H6" s="2">
         <v>7</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>614</v>
+        <v>1495</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1495</v>
+        <v>826</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>2019</v>
@@ -2554,60 +2818,78 @@
       <c r="H8" s="2">
         <v>7</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>826</v>
+        <v>1399</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2">
         <v>2019</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1399</v>
+        <v>822</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>2019</v>
@@ -2625,28 +2907,33 @@
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>739</v>
+        <v>462</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>2019</v>
@@ -2663,24 +2950,37 @@
       <c r="H11" s="2">
         <v>6</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>822</v>
+        <v>1336</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>54</v>
@@ -2695,28 +2995,33 @@
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>462</v>
+        <v>750</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
         <v>2019</v>
@@ -2734,31 +3039,36 @@
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1336</v>
+        <v>315</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>62</v>
@@ -2772,25 +3082,34 @@
       <c r="H14" s="2">
         <v>6</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>750</v>
+        <v>1196</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>2019</v>
@@ -2807,28 +3126,37 @@
       <c r="H15" s="2">
         <v>6</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="L15" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>315</v>
+        <v>1012</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>70</v>
@@ -2840,21 +3168,30 @@
         <v>72</v>
       </c>
       <c r="H16" s="2">
-        <v>6</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="L16" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1196</v>
+        <v>1019</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>73</v>
@@ -2863,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>74</v>
@@ -2875,21 +3212,30 @@
         <v>76</v>
       </c>
       <c r="H17" s="2">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J17" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="L17" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1012</v>
+        <v>1270</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>77</v>
@@ -2898,7 +3244,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>78</v>
@@ -2912,19 +3258,28 @@
       <c r="H18" s="2">
         <v>5</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="L18" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1019</v>
+        <v>1043</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>81</v>
@@ -2947,23 +3302,28 @@
       <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>421</v>
+      <c r="I19" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1270</v>
+        <v>1149</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
@@ -2987,31 +3347,36 @@
         <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>414</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1043</v>
+        <v>821</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>90</v>
@@ -3025,29 +3390,34 @@
       <c r="H21" s="2">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>417</v>
+      <c r="I21" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>419</v>
+        <v>508</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1149</v>
+        <v>1380</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
         <v>2019</v>
@@ -3065,28 +3435,33 @@
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>821</v>
+        <v>1177</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
         <v>2019</v>
@@ -3104,33 +3479,36 @@
         <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1380</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>102</v>
@@ -3145,24 +3523,27 @@
         <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1177</v>
+        <v>1017</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>105</v>
@@ -3171,7 +3552,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>106</v>
@@ -3186,22 +3567,27 @@
         <v>5</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>109</v>
@@ -3210,7 +3596,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>110</v>
@@ -3224,15 +3610,28 @@
       <c r="H26" s="2">
         <v>5</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1017</v>
+        <v>1213</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>113</v>
@@ -3241,7 +3640,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>114</v>
@@ -3255,21 +3654,34 @@
       <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2">
         <v>2017</v>
@@ -3286,21 +3698,34 @@
       <c r="H28" s="2">
         <v>5</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>1213</v>
+        <v>448</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2">
         <v>2019</v>
@@ -3317,24 +3742,37 @@
       <c r="H29" s="2">
         <v>5</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>559</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>126</v>
@@ -3348,15 +3786,28 @@
       <c r="H30" s="2">
         <v>5</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>129</v>
@@ -3365,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>130</v>
@@ -3379,21 +3830,34 @@
       <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>310</v>
+        <v>455</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2">
         <v>2019</v>
@@ -3410,21 +3874,34 @@
       <c r="H32" s="2">
         <v>5</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>413</v>
+        <v>628</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2">
         <v>2018</v>
@@ -3441,24 +3918,37 @@
       <c r="H33" s="2">
         <v>5</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>455</v>
+        <v>631</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>142</v>
@@ -3472,24 +3962,37 @@
       <c r="H34" s="2">
         <v>5</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>628</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>146</v>
@@ -3501,26 +4004,39 @@
         <v>148</v>
       </c>
       <c r="H35" s="2">
-        <v>5</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>631</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>150</v>
@@ -3532,17 +4048,30 @@
         <v>152</v>
       </c>
       <c r="H36" s="2">
-        <v>5</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>153</v>
@@ -3551,7 +4080,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>154</v>
@@ -3565,21 +4094,34 @@
       <c r="H37" s="2">
         <v>4</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>278</v>
+        <v>1157</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
         <v>2019</v>
@@ -3596,77 +4138,92 @@
       <c r="H38" s="2">
         <v>4</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="I38" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>1205</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="4">
+        <v>4</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>80</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="4">
         <v>2018</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="E40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="4">
         <v>4</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1157</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" s="2">
-        <v>4</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>1205</v>
+        <v>1120</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>169</v>
@@ -3690,20 +4247,21 @@
         <v>4</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>80</v>
+        <v>1085</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4">
         <v>2018</v>
@@ -3725,10 +4283,11 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>1120</v>
+        <v>1049</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>177</v>
@@ -3737,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>178</v>
@@ -3756,19 +4315,20 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>1085</v>
+        <v>223</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D44" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>182</v>
@@ -3787,19 +4347,20 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>1049</v>
+        <v>328</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>186</v>
@@ -3818,19 +4379,20 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>223</v>
+        <v>652</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D46" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>190</v>
@@ -3849,19 +4411,20 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>328</v>
+        <v>1041</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D47" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>194</v>
@@ -3880,16 +4443,17 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>652</v>
+        <v>1020</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D48" s="4">
         <v>2018</v>
@@ -3911,16 +4475,17 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>1041</v>
+        <v>645</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4">
         <v>2018</v>
@@ -3942,10 +4507,11 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>205</v>
@@ -3973,19 +4539,20 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>645</v>
+        <v>442</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D51" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>210</v>
@@ -4004,19 +4571,20 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>1018</v>
+        <v>450</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D52" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>214</v>
@@ -4035,19 +4603,20 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>442</v>
+        <v>971</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D53" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>218</v>
@@ -4066,19 +4635,20 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>450</v>
+        <v>896</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>222</v>
@@ -4097,19 +4667,20 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>971</v>
+        <v>879</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>226</v>
@@ -4128,16 +4699,17 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>896</v>
+        <v>497</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D56" s="4">
         <v>2017</v>
@@ -4159,19 +4731,20 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>879</v>
+        <v>145</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D57" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>234</v>
@@ -4190,10 +4763,11 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>497</v>
+        <v>578</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>237</v>
@@ -4221,19 +4795,20 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>145</v>
+        <v>1208</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D59" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>242</v>
@@ -4252,19 +4827,20 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>578</v>
+        <v>418</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D60" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>246</v>
@@ -4283,16 +4859,17 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>1208</v>
+        <v>247</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D61" s="4">
         <v>2019</v>
@@ -4314,19 +4891,20 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>418</v>
+        <v>1210</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D62" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>254</v>
@@ -4345,19 +4923,20 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>247</v>
+        <v>1321</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D63" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>258</v>
@@ -4376,16 +4955,17 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>1210</v>
+        <v>1379</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D64" s="4">
         <v>2019</v>
@@ -4407,19 +4987,20 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>1321</v>
+        <v>1232</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D65" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>266</v>
@@ -4438,19 +5019,20 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>1379</v>
+        <v>1335</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D66" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>270</v>
@@ -4469,16 +5051,17 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>1232</v>
+        <v>1509</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D67" s="4">
         <v>2019</v>
@@ -4500,19 +5083,20 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>1335</v>
+        <v>1490</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D68" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>278</v>
@@ -4531,16 +5115,17 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D69" s="4">
         <v>2019</v>
@@ -4562,19 +5147,20 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>1490</v>
+        <v>1460</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D70" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>286</v>
@@ -4593,19 +5179,20 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>1512</v>
+        <v>1428</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D71" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>290</v>
@@ -4624,19 +5211,20 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>1460</v>
+        <v>1393</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>293</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D72" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>294</v>
@@ -4655,16 +5243,17 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D73" s="4">
         <v>2017</v>
@@ -4686,16 +5275,17 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>1393</v>
+        <v>449</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D74" s="4">
         <v>2019</v>
@@ -4710,23 +5300,24 @@
         <v>304</v>
       </c>
       <c r="H74" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="5"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>1426</v>
+        <v>972</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D75" s="4">
         <v>2017</v>
@@ -4741,26 +5332,27 @@
         <v>308</v>
       </c>
       <c r="H75" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="5"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D76" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>310</v>
@@ -4779,10 +5371,11 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>972</v>
+        <v>1214</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>313</v>
@@ -4791,7 +5384,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>314</v>
@@ -4810,19 +5403,20 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>612</v>
+        <v>102</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>317</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D78" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>318</v>
@@ -4841,10 +5435,11 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>1214</v>
+        <v>1002</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>321</v>
@@ -4853,7 +5448,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>322</v>
@@ -4872,19 +5467,20 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>102</v>
+        <v>457</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D80" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>326</v>
@@ -4903,19 +5499,20 @@
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>1002</v>
+        <v>185</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D81" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>330</v>
@@ -4934,16 +5531,17 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>457</v>
+        <v>1476</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D82" s="4">
         <v>2019</v>
@@ -4965,19 +5563,20 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>185</v>
+        <v>1446</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D83" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>338</v>
@@ -4996,19 +5595,20 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>1476</v>
+        <v>1337</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D84" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>342</v>
@@ -5027,19 +5627,20 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>1446</v>
+        <v>1365</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D85" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>346</v>
@@ -5058,16 +5659,17 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>1337</v>
+        <v>144</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D86" s="4">
         <v>2018</v>
@@ -5089,19 +5691,20 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>1365</v>
+        <v>934</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D87" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>354</v>
@@ -5120,10 +5723,11 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>357</v>
@@ -5151,10 +5755,11 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>361</v>
@@ -5182,19 +5787,20 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>198</v>
+        <v>919</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D90" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>366</v>
@@ -5213,10 +5819,11 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>369</v>
@@ -5244,10 +5851,11 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>373</v>
@@ -5275,16 +5883,17 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>904</v>
+        <v>38</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D93" s="4">
         <v>2017</v>
@@ -5306,19 +5915,20 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>901</v>
+        <v>196</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D94" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>382</v>
@@ -5337,28 +5947,29 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>38</v>
+        <v>810</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D95" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>386</v>
       </c>
       <c r="F95" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="H95" s="4">
         <v>3</v>
@@ -5368,28 +5979,29 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>196</v>
+        <v>506</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="H96" s="4">
         <v>3</v>
@@ -5399,13 +6011,14 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>18</v>
@@ -5414,10 +6027,10 @@
         <v>2019</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>395</v>
@@ -5430,10 +6043,11 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>506</v>
+        <v>749</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>396</v>
@@ -5442,7 +6056,7 @@
         <v>18</v>
       </c>
       <c r="D98" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>397</v>
@@ -5461,16 +6075,17 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>851</v>
+        <v>1268</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>400</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D99" s="4">
         <v>2019</v>
@@ -5492,75 +6107,15 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>749</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H100" s="4">
-        <v>3</v>
-      </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>1268</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H101" s="4">
-        <v>3</v>
-      </c>
-      <c r="I101" s="4"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
+      <c r="N99" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I21" r:id="rId1"/>
-    <hyperlink ref="I9" r:id="rId2" display="CODEnn-Java-Train"/>
+    <hyperlink ref="I19" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2" display="CODEnn-Java-Train"/>
+    <hyperlink ref="I15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>